--- a/Excel/CropConfig.xlsx
+++ b/Excel/CropConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DF83FE1-A5BD-4EE1-B6E7-B98C7EFA66D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{46C9970A-692F-40FE-B198-B151311B5686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2670" yWindow="1650" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
@@ -191,14 +191,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ItemBase.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potato_grow_0,Potato_grow_1,Potato_grow_2,Potato_grow_3,Potato_grow_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -207,6 +199,14 @@
         Summer,
         Autumn,
         Winter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Potato_grow_0","Potato_grow_1","Potato_grow_2","Potato_grow_3","Potato_grow_4"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ItemBase.prefab"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -598,14 +598,14 @@
   <dimension ref="C1:AL28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="77.375" customWidth="1"/>
     <col min="7" max="7" width="66.875" customWidth="1"/>
     <col min="8" max="8" width="13.625" customWidth="1"/>
     <col min="9" max="10" width="20.5" customWidth="1"/>
@@ -623,7 +623,7 @@
   <sheetData>
     <row r="1" spans="3:38" ht="57" x14ac:dyDescent="0.2">
       <c r="H1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="3:38" x14ac:dyDescent="0.2">
@@ -859,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I6" s="2">
         <v>1015</v>

--- a/Excel/CropConfig.xlsx
+++ b/Excel/CropConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{46C9970A-692F-40FE-B198-B151311B5686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9068485A-8B41-4DC2-94F3-BD7F34CC2EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1650" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="765" yWindow="990" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>//     Spring,
         Summer,
         Autumn,
@@ -207,6 +203,10 @@
   </si>
   <si>
     <t>"ItemBase.prefab"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,7 +623,7 @@
   <sheetData>
     <row r="1" spans="3:38" ht="57" x14ac:dyDescent="0.2">
       <c r="H1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="3:38" x14ac:dyDescent="0.2">
@@ -859,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I6" s="2">
         <v>1015</v>

--- a/Excel/CropConfig.xlsx
+++ b/Excel/CropConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9068485A-8B41-4DC2-94F3-BD7F34CC2EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFDFC47-4FAB-4B94-8ED8-1CC6BAA249F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="765" yWindow="990" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,6 +207,14 @@
   </si>
   <si>
     <t>0,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,3,3,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Grape_grow_0","Grape_grow_1","Grape_grow_2","Grape_grow_3","Grape_grow_4"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -597,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -905,23 +913,60 @@
       </c>
     </row>
     <row r="7" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="C7" s="2">
+        <v>1008</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1015</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1013</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
+      <c r="N7" s="2">
+        <v>15</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>

--- a/Excel/CropConfig.xlsx
+++ b/Excel/CropConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFDFC47-4FAB-4B94-8ED8-1CC6BAA249F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFCD712-9FEC-47B5-8CAB-6BEA7FA3A41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="765" yWindow="990" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>1015</v>
       </c>
       <c r="J7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="2">
         <v>2</v>

--- a/Excel/CropConfig.xlsx
+++ b/Excel/CropConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFCD712-9FEC-47B5-8CAB-6BEA7FA3A41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0034DE3B-03DA-44AF-B574-9D72ED349B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="990" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="765" yWindow="990" windowWidth="22275" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -215,6 +215,46 @@
   </si>
   <si>
     <t>"Grape_grow_0","Grape_grow_1","Grape_grow_2","Grape_grow_3","Grape_grow_4"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Tree01_Fruitage","Tree01_Stage01","Tree01_Stage02","Tree01_Stage03","Tree01_Top"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010,1016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ItemBase.prefab","ItemBase.prefab","ItemBase.prefab","ItemBase.prefab","Tree01.prefab"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否能消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanFade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否消失父物体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FadeParent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +328,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,6 +670,8 @@
     <col min="18" max="18" width="20.625" customWidth="1"/>
     <col min="19" max="19" width="16.125" customWidth="1"/>
     <col min="20" max="20" width="17.5" customWidth="1"/>
+    <col min="21" max="21" width="19.375" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:38" ht="57" x14ac:dyDescent="0.2">
@@ -689,8 +734,12 @@
       <c r="T3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="U3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -763,8 +812,12 @@
       <c r="T4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -837,8 +890,12 @@
       <c r="T5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -911,6 +968,12 @@
       <c r="T6" s="2">
         <v>0</v>
       </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
@@ -967,25 +1030,74 @@
       <c r="T7" s="2">
         <v>0</v>
       </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="C8" s="2">
+        <v>1016</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1017</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>

--- a/Excel/CropConfig.xlsx
+++ b/Excel/CropConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0034DE3B-03DA-44AF-B574-9D72ED349B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5C715C-14B1-47E8-8A7A-A1F6551B9F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="765" yWindow="990" windowWidth="22275" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -255,6 +255,26 @@
   </si>
   <si>
     <t>FadeParent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Tree01_Trunk.prefab"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Tree01_Trunk.png"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -648,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -950,8 +970,8 @@
       <c r="N6" s="2">
         <v>4</v>
       </c>
-      <c r="O6" s="2">
-        <v>1</v>
+      <c r="O6" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
@@ -1012,8 +1032,8 @@
       <c r="N7" s="2">
         <v>15</v>
       </c>
-      <c r="O7" s="2">
-        <v>1</v>
+      <c r="O7" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="P7" s="2">
         <v>10</v>
@@ -1074,8 +1094,8 @@
       <c r="N8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="2">
-        <v>0</v>
+      <c r="O8" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="P8" s="2">
         <v>0</v>
@@ -1100,23 +1120,66 @@
       </c>
     </row>
     <row r="9" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="C9" s="2">
+        <v>1017</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1010</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>8</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>

--- a/Excel/CropConfig.xlsx
+++ b/Excel/CropConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5C715C-14B1-47E8-8A7A-A1F6551B9F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36CD99F-0C10-40A2-BFDF-A4747E42D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="765" yWindow="990" windowWidth="22275" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -275,6 +275,58 @@
   </si>
   <si>
     <t>"Tree01_Trunk.png"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效Prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParticlePrefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FallingLeaves01.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效生成位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParticlePos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ItemBase.prefab","ItemBase.prefab","ItemBase.prefab","ItemBase.prefab","Tree02.prefab"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Tree02_Fruitage","Tree02_Stage01","Tree02_Stage02","Tree02_Stage03","Tree02_Top"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1018,1019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FallingLeaves02.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Tree02_Trunk.prefab"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Tree02_Trunk.png"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -668,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,6 +744,8 @@
     <col min="20" max="20" width="17.5" customWidth="1"/>
     <col min="21" max="21" width="19.375" customWidth="1"/>
     <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="23" max="23" width="23.625" customWidth="1"/>
+    <col min="24" max="24" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:38" ht="57" x14ac:dyDescent="0.2">
@@ -760,8 +814,12 @@
       <c r="V3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
+      <c r="W3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -838,8 +896,12 @@
       <c r="V4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -916,8 +978,12 @@
       <c r="V5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
+      <c r="W5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -994,6 +1060,7 @@
       <c r="V6" s="2">
         <v>0</v>
       </c>
+      <c r="W6" s="2"/>
     </row>
     <row r="7" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
@@ -1118,6 +1185,12 @@
       <c r="V8" s="2">
         <v>1</v>
       </c>
+      <c r="W8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
@@ -1182,42 +1255,134 @@
       </c>
     </row>
     <row r="10" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="C10" s="2">
+        <v>1019</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1001</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="C11" s="2">
+        <v>1020</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1001</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1018</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>8</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>

--- a/Excel/CropConfig.xlsx
+++ b/Excel/CropConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36CD99F-0C10-40A2-BFDF-A4747E42D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FAEBE0-06C7-4626-80AB-30034A6C53E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="990" windowWidth="22275" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="1350" yWindow="1785" windowWidth="22275" windowHeight="12300" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -327,6 +327,58 @@
   </si>
   <si>
     <t>"Tree02_Trunk.png"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>针树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>针树树根</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔叶树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔叶树根</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Rock01.prefab"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Rock02.prefab"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Rock01.png"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Rock02.png"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#注释</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -718,109 +770,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
-  <dimension ref="C1:AL28"/>
+  <dimension ref="C1:AM28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="77.375" customWidth="1"/>
-    <col min="7" max="7" width="66.875" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="10" width="20.5" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="12" width="16.375" customWidth="1"/>
-    <col min="13" max="13" width="31.875" customWidth="1"/>
-    <col min="14" max="14" width="28.875" customWidth="1"/>
-    <col min="15" max="15" width="16.125" customWidth="1"/>
-    <col min="16" max="16" width="18.375" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
-    <col min="18" max="18" width="20.625" customWidth="1"/>
-    <col min="19" max="19" width="16.125" customWidth="1"/>
-    <col min="20" max="20" width="17.5" customWidth="1"/>
-    <col min="21" max="21" width="19.375" customWidth="1"/>
-    <col min="22" max="22" width="15.5" customWidth="1"/>
-    <col min="23" max="23" width="23.625" customWidth="1"/>
-    <col min="24" max="24" width="22.125" customWidth="1"/>
+    <col min="3" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="77.375" customWidth="1"/>
+    <col min="8" max="8" width="66.875" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
+    <col min="14" max="14" width="31.875" customWidth="1"/>
+    <col min="15" max="15" width="28.875" customWidth="1"/>
+    <col min="16" max="16" width="16.125" customWidth="1"/>
+    <col min="17" max="17" width="18.375" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="19" max="19" width="20.625" customWidth="1"/>
+    <col min="20" max="20" width="16.125" customWidth="1"/>
+    <col min="21" max="21" width="17.5" customWidth="1"/>
+    <col min="22" max="22" width="19.375" customWidth="1"/>
+    <col min="23" max="23" width="15.5" customWidth="1"/>
+    <col min="24" max="24" width="23.625" customWidth="1"/>
+    <col min="25" max="25" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:38" ht="57" x14ac:dyDescent="0.2">
-      <c r="H1" s="3" t="s">
+    <row r="1" spans="3:39" ht="57" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -834,75 +888,76 @@
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
-    </row>
-    <row r="4" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM3" s="1"/>
+    </row>
+    <row r="4" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -916,25 +971,24 @@
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
-    </row>
-    <row r="5" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM4" s="1"/>
+    </row>
+    <row r="5" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>4</v>
@@ -943,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>4</v>
@@ -958,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>1</v>
@@ -979,12 +1033,14 @@
         <v>1</v>
       </c>
       <c r="W5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -998,58 +1054,59 @@
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
-    </row>
-    <row r="6" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM5" s="1"/>
+    </row>
+    <row r="6" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C6" s="2">
         <v>1006</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>1015</v>
       </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <v>1011</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>4</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
       <c r="Q6" s="2">
         <v>0</v>
       </c>
       <c r="R6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
@@ -1060,59 +1117,62 @@
       <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>1008</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>1015</v>
       </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>1013</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>10</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>15</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>10</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>2</v>
       </c>
-      <c r="R7" s="2">
-        <v>1</v>
-      </c>
       <c r="S7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
@@ -1123,50 +1183,53 @@
       <c r="V7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>1016</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>1001</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>1017</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
       <c r="Q8" s="2">
         <v>0</v>
       </c>
@@ -1174,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="2">
         <v>1</v>
@@ -1185,56 +1248,59 @@
       <c r="V8" s="2">
         <v>1</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>1017</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>1001</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>5</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
       <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>1010</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>5</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>8</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
       <c r="Q9" s="2">
         <v>0</v>
       </c>
@@ -1253,50 +1319,53 @@
       <c r="V9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>1019</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>1001</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>5</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>1020</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
       <c r="Q10" s="2">
         <v>0</v>
       </c>
@@ -1304,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="2">
         <v>1</v>
@@ -1315,56 +1384,59 @@
       <c r="V10" s="2">
         <v>1</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="W10" s="2">
+        <v>1</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>1020</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
+      <c r="D11" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>1001</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>5</v>
       </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
       <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
         <v>1018</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>5</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>8</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
@@ -1383,46 +1455,141 @@
       <c r="V11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1003</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1021</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3</v>
+      </c>
+      <c r="O12" s="2">
+        <v>5</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="C13" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1003</v>
+      </c>
+      <c r="K13" s="2">
+        <v>4</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1021</v>
+      </c>
+      <c r="N13" s="2">
+        <v>3</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1440,8 +1607,9 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1459,8 +1627,9 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1478,8 +1647,9 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1497,8 +1667,9 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1516,8 +1687,9 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1535,8 +1707,9 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1554,8 +1727,9 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1573,8 +1747,9 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1592,8 +1767,9 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1611,8 +1787,9 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1630,8 +1807,9 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1649,8 +1827,9 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1668,8 +1847,9 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1687,8 +1867,9 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1706,6 +1887,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Excel/CropConfig.xlsx
+++ b/Excel/CropConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FAEBE0-06C7-4626-80AB-30034A6C53E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B4C19E-6824-4CA4-8F72-3C12EDB939EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1350" yWindow="1785" windowWidth="22275" windowHeight="12300" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -379,6 +379,14 @@
   </si>
   <si>
     <t>#注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RockParticle.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -772,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:AM28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1458,6 +1466,8 @@
       <c r="W11" s="2">
         <v>0</v>
       </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
     </row>
     <row r="12" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
@@ -1515,13 +1525,19 @@
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2">
         <v>0</v>
       </c>
       <c r="W12" s="2">
         <v>0</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="3:39" x14ac:dyDescent="0.2">
@@ -1580,13 +1596,19 @@
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="2">
         <v>0</v>
       </c>
       <c r="W13" s="2">
         <v>0</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="3:39" x14ac:dyDescent="0.2">
@@ -1608,6 +1630,8 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
     </row>
     <row r="15" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
@@ -1628,6 +1652,8 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
     </row>
     <row r="16" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
@@ -1648,8 +1674,10 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1668,8 +1696,10 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1688,8 +1718,10 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1708,8 +1740,10 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1728,8 +1762,10 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1748,8 +1784,10 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1768,8 +1806,10 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1788,8 +1828,10 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1808,8 +1850,10 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1828,8 +1872,10 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1848,8 +1894,10 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1868,8 +1916,10 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>

--- a/Excel/CropConfig.xlsx
+++ b/Excel/CropConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B4C19E-6824-4CA4-8F72-3C12EDB939EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746DE4C3-CF99-4B2C-B074-D403D6D634DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1785" windowWidth="22275" windowHeight="12300" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="2085" yWindow="1950" windowWidth="22275" windowHeight="12300" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>0,1,2,3</t>
+  </si>
+  <si>
+    <t>0,1,2,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -271,6 +274,9 @@
   </si>
   <si>
     <t>1,1</t>
+  </si>
+  <si>
+    <t>1,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -387,6 +393,36 @@
   </si>
   <si>
     <t>0,1,0</t>
+  </si>
+  <si>
+    <t>0,1,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂草1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂草2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂草3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReapParticle.prefab</t>
+  </si>
+  <si>
+    <t>"Grass01.png"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Grass02.png"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Grass03.png"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -780,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:AM28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -818,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -872,16 +908,16 @@
         <v>32</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -955,16 +991,16 @@
         <v>37</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -1044,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>4</v>
@@ -1069,7 +1105,7 @@
         <v>1006</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>38</v>
@@ -1105,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1135,7 +1171,7 @@
         <v>1008</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>43</v>
@@ -1171,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="2">
         <v>10</v>
@@ -1200,7 +1236,7 @@
         <v>1016</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>43</v>
@@ -1209,13 +1245,13 @@
         <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2">
         <v>1001</v>
@@ -1227,16 +1263,16 @@
         <v>1017</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -1260,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="3:39" x14ac:dyDescent="0.2">
@@ -1271,7 +1307,7 @@
         <v>1017</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1280,13 +1316,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" s="2">
         <v>1001</v>
@@ -1307,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -1336,7 +1372,7 @@
         <v>1019</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>43</v>
@@ -1345,13 +1381,13 @@
         <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" s="2">
         <v>1001</v>
@@ -1363,16 +1399,16 @@
         <v>1020</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -1396,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="3:39" x14ac:dyDescent="0.2">
@@ -1407,7 +1443,7 @@
         <v>1020</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1416,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J11" s="2">
         <v>1001</v>
@@ -1443,7 +1479,7 @@
         <v>8</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -1474,7 +1510,7 @@
         <v>1001</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1483,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" s="2">
         <v>1003</v>
@@ -1510,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -1534,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="3:39" x14ac:dyDescent="0.2">
@@ -1545,7 +1581,7 @@
         <v>1002</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1554,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2">
         <v>1003</v>
@@ -1581,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -1605,77 +1641,216 @@
         <v>0</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="C14" s="2">
+        <v>1003</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1004</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="C15" s="2">
+        <v>1004</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1004</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="16" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="C16" s="2">
+        <v>1005</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1004</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1022</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>3</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
